--- a/src/main/webapp/file/template/TEMPLATE_FormEmployeeFile.xlsx
+++ b/src/main/webapp/file/template/TEMPLATE_FormEmployeeFile.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mobifone\User\SourceCode\UMS\src\main\webapp\file\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976B6094-E1C9-4BFE-9CF7-EC2166B3714B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230B144A-758B-47C5-B253-542FD329D82F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>Trạng thái</t>
   </si>
@@ -84,12 +84,6 @@
     <t>Tổ thu (hoặc Chi nhánh CSKK)</t>
   </si>
   <si>
-    <t>YEN.NTH10</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Hoàng Yến</t>
-  </si>
-  <si>
     <t>2023-01-02</t>
   </si>
   <si>
@@ -105,9 +99,6 @@
     <t>2MFH10009</t>
   </si>
   <si>
-    <t>0.1.3.4;0.1.12.132</t>
-  </si>
-  <si>
     <t>C1-CuaHang(7h30den22h)</t>
   </si>
   <si>
@@ -132,7 +123,25 @@
     <t>Tên người dùng</t>
   </si>
   <si>
-    <t>0123456789</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>tienht_tm</t>
+  </si>
+  <si>
+    <t>huongptt1_tm</t>
+  </si>
+  <si>
+    <t>Hồ Thị Tiên</t>
+  </si>
+  <si>
+    <t>Phạm Thị Thu Hương</t>
+  </si>
+  <si>
+    <t>10.151.106.1-10.151.106.254</t>
+  </si>
+  <si>
+    <t>LDAP</t>
   </si>
 </sst>
 </file>
@@ -164,26 +173,28 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF212121"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <sz val="10"/>
       <color rgb="FF002060"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF212121"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF002060"/>
+      <u/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF282828"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -203,13 +214,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,17 +268,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -585,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -602,7 +611,7 @@
     <col min="7" max="7" width="14.109375" style="2" customWidth="1"/>
     <col min="8" max="8" width="29" style="2" customWidth="1"/>
     <col min="9" max="9" width="24.77734375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="24.5546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="34.109375" style="2" customWidth="1"/>
     <col min="11" max="11" width="15.6640625" style="2" customWidth="1"/>
     <col min="12" max="12" width="14" style="2" customWidth="1"/>
     <col min="13" max="13" width="18.33203125" style="2" customWidth="1"/>
@@ -612,14 +621,15 @@
     <col min="17" max="17" width="32.6640625" style="2" customWidth="1"/>
     <col min="18" max="18" width="16.21875" customWidth="1"/>
     <col min="19" max="19" width="19.88671875" customWidth="1"/>
+    <col min="20" max="20" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -672,89 +682,159 @@
       <c r="S1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="T1" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:20" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="8">
+        <v>797554533</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="I2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="L2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="O2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="7">
+        <v>786383219</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="P3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="2" t="s">
+      <c r="Q3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="S3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" s="2">
+      <c r="T3">
         <v>0</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <dataValidations count="14">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="không được bỏ trống" sqref="A1 A3:A65536" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+  <dataValidations count="15">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="không được bỏ trống" sqref="A1 A4:A65536" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="định dạng: yyyy-mm-dd_x000a_Ngày sinh phải trước ngày hôm nay" sqref="D1:D1048576" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nhập số" prompt="0: không hiệu lực_x000a_ 1: hiệu lực" sqref="L1:L1048576" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nhập số" prompt="0: NV bán hàng TT, _x000a_1: NV phát triển tại cửa hàng,_x000a_2: NV KHDN AM,_x000a_3: NV KHDN KAM,_x000a_4: GDV hổ trợ,_x000a_5: NV bán hàng lưu động,_x000a_6: NV ĐBH đa DV" sqref="M1:M1048576" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="định dạng: yyyy-mm-dd_x000a_Ngày cấp phải trước ngày hôm nay_x000a_Ngày cấp phải sau ngày sinh" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="nhập shop_code" sqref="H1:I1 H3:I65536" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="nhập shop_code" sqref="H1:I1 H4:I65536" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="vd: thành phố hồ chí minh" sqref="N1:N1048576" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="vd: quận 1" sqref="O1:O1048576" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="nhập số" prompt="C2-Liên tục (24/24: Admin, Đ1090), _x000a_Giới hạn ban đêm (CV, ĐLC, CH, PN), _x000a_C2-Chan Dai ly tam ngung hoat dong,_x000a_C1-CuaHang(7h30den22h)_x000a_C2_VNPOST_x000a_C2_Mo tam 24/24 cho TGDD(user TGDD)_x000a_CTY5(7h/23h)_x000a_C8-Giới hạn ban đêm_x000a_CTY9_chan tac dong ban dem_x000a_CTY9_ALL TIME" sqref="K2:K65536" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="nhập loại lịch" prompt="C2-Liên tục (24/24: Admin, Đ1090), _x000a_Giới hạn ban đêm (CV, ĐLC, CH, PN), _x000a_C2-Chan Dai ly tam ngung hoat dong,_x000a_C1-CuaHang(7h30den22h)_x000a_C2_VNPOST_x000a_C2_Mo tam 24/24 cho TGDD(user TGDD)_x000a_CTY5(7h/23h)_x000a_C8-Giới hạn ban đêm_x000a_CTY9_chan tac dong ban dem_x000a_CTY9_ALL TIME" sqref="K1" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="nhập số. vd: 1,2" prompt="1: Quản trị phân quyền người dùng_x000a_2: Hệ thống TTCP_x000a_3: Hệ thống CSKH_x000a_4: Hệ thống Cấp số khuyến khích_x000a_5: Hệ thống Resnum_x000a_6: Hệ thống BHTT" sqref="P1 P3:P65536" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="nhập số. vd: 1,2" prompt="1: Quản trị phân quyền người dùng_x000a_2: Hệ thống TTCP_x000a_3: Hệ thống CSKH_x000a_4: Hệ thống Cấp số khuyến khích_x000a_5: Hệ thống Resnum_x000a_6: Hệ thống BHTT" sqref="P1 P4:P65536" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="nhập vai trò" prompt="- GDV_x000a_- CHT_x000a_- AM" sqref="R1" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="nhập mail" prompt="vd: x@mobifone.vn" sqref="S1 S3:S65536" xr:uid="{00000000-0002-0000-0000-00000D000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="nhập số. vd: 1" prompt="0: Không cấp quyền_x000a_1: Giao dịch viên_x000a_2: nhân viên KAM" sqref="Q1:Q1048576" xr:uid="{F846AED9-33AE-4842-8BBC-E46B5CF9DE27}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="nhập mail" prompt="vd: x@mobifone.vn" sqref="S4:S65536 S1" xr:uid="{00000000-0002-0000-0000-00000D000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="nhập số. vd: 1" prompt="0: Không cấp quyền_x000a_1: Giao dịch viên_x000a_2: Cửa hàng trưởng" sqref="Q1:Q1048576" xr:uid="{F846AED9-33AE-4842-8BBC-E46B5CF9DE27}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="có kết nối LDAP không" prompt="0: không_x000a_1: có" sqref="T1:T1048576" xr:uid="{7C8CE011-F754-4355-AD1A-72080C37D423}"/>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="S2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="S3" r:id="rId2" xr:uid="{771EB295-0B5C-47AA-8147-8ADEF0A3342B}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>